--- a/自动化测试机型适配记录.xlsx
+++ b/自动化测试机型适配记录.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
